--- a/excessmortality_metadataform.xlsx
+++ b/excessmortality_metadataform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/GitHub/excessmortalityforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC804E-2C33-D647-BE74-CBF2983CC355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95160053-833F-4C41-B336-BB99EB692699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -473,6 +473,24 @@
   </si>
   <si>
     <t>Scan a sample page of the dataset using a scanning app on your smartphone or tablet  or through an external scanning device. Return to this form once scanning is completed.</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -925,7 +943,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1386,7 +1404,9 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -1460,7 +1480,9 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -1522,7 +1544,9 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9" t="s">
@@ -1608,7 +1632,9 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9" t="s">
@@ -1683,7 +1709,9 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9" t="s">
@@ -1778,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2071"/>
+  <dimension ref="A1:D2076"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1917,184 +1945,185 @@
         <v>115</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="4"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B30" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -2105,27 +2134,51 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="6">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4">
@@ -2914,30 +2967,35 @@
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
     </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+    </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6"/>
@@ -5139,25 +5197,30 @@
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
     </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="6"/>
+      <c r="B613" s="6"/>
+      <c r="C613" s="6"/>
+    </row>
     <row r="614" spans="1:3">
-      <c r="B614"/>
-      <c r="C614"/>
+      <c r="A614" s="6"/>
+      <c r="B614" s="6"/>
+      <c r="C614" s="6"/>
     </row>
     <row r="615" spans="1:3">
-      <c r="B615"/>
-      <c r="C615"/>
+      <c r="A615" s="6"/>
+      <c r="B615" s="6"/>
+      <c r="C615" s="6"/>
     </row>
     <row r="616" spans="1:3">
-      <c r="B616"/>
-      <c r="C616"/>
+      <c r="A616" s="6"/>
+      <c r="B616" s="6"/>
+      <c r="C616" s="6"/>
     </row>
     <row r="617" spans="1:3">
-      <c r="B617"/>
-      <c r="C617"/>
-    </row>
-    <row r="618" spans="1:3">
-      <c r="B618"/>
-      <c r="C618"/>
+      <c r="A617" s="6"/>
+      <c r="B617" s="6"/>
+      <c r="C617" s="6"/>
     </row>
     <row r="619" spans="1:3">
       <c r="B619"/>
@@ -5567,74 +5630,69 @@
       <c r="B720"/>
       <c r="C720"/>
     </row>
-    <row r="721" spans="2:4">
+    <row r="721" spans="2:3">
       <c r="B721"/>
       <c r="C721"/>
     </row>
-    <row r="722" spans="2:4">
+    <row r="722" spans="2:3">
       <c r="B722"/>
       <c r="C722"/>
     </row>
-    <row r="723" spans="2:4">
+    <row r="723" spans="2:3">
       <c r="B723"/>
       <c r="C723"/>
     </row>
-    <row r="724" spans="2:4">
+    <row r="724" spans="2:3">
       <c r="B724"/>
       <c r="C724"/>
     </row>
-    <row r="725" spans="2:4">
+    <row r="725" spans="2:3">
       <c r="B725"/>
       <c r="C725"/>
     </row>
-    <row r="726" spans="2:4">
+    <row r="726" spans="2:3">
       <c r="B726"/>
       <c r="C726"/>
     </row>
-    <row r="727" spans="2:4">
+    <row r="727" spans="2:3">
       <c r="B727"/>
       <c r="C727"/>
     </row>
-    <row r="728" spans="2:4">
+    <row r="728" spans="2:3">
       <c r="B728"/>
       <c r="C728"/>
     </row>
-    <row r="729" spans="2:4">
+    <row r="729" spans="2:3">
       <c r="B729"/>
       <c r="C729"/>
     </row>
-    <row r="730" spans="2:4">
+    <row r="730" spans="2:3">
       <c r="B730"/>
       <c r="C730"/>
     </row>
-    <row r="731" spans="2:4">
+    <row r="731" spans="2:3">
       <c r="B731"/>
       <c r="C731"/>
     </row>
-    <row r="732" spans="2:4">
+    <row r="732" spans="2:3">
       <c r="B732"/>
       <c r="C732"/>
-      <c r="D732" s="6"/>
-    </row>
-    <row r="733" spans="2:4">
+    </row>
+    <row r="733" spans="2:3">
       <c r="B733"/>
       <c r="C733"/>
-      <c r="D733" s="6"/>
-    </row>
-    <row r="734" spans="2:4">
+    </row>
+    <row r="734" spans="2:3">
       <c r="B734"/>
       <c r="C734"/>
-      <c r="D734" s="6"/>
-    </row>
-    <row r="735" spans="2:4">
+    </row>
+    <row r="735" spans="2:3">
       <c r="B735"/>
       <c r="C735"/>
-      <c r="D735" s="6"/>
-    </row>
-    <row r="736" spans="2:4">
+    </row>
+    <row r="736" spans="2:3">
       <c r="B736"/>
       <c r="C736"/>
-      <c r="D736" s="6"/>
     </row>
     <row r="737" spans="2:4">
       <c r="B737"/>
@@ -5689,22 +5747,27 @@
     <row r="747" spans="2:4">
       <c r="B747"/>
       <c r="C747"/>
+      <c r="D747" s="6"/>
     </row>
     <row r="748" spans="2:4">
       <c r="B748"/>
       <c r="C748"/>
+      <c r="D748" s="6"/>
     </row>
     <row r="749" spans="2:4">
       <c r="B749"/>
       <c r="C749"/>
+      <c r="D749" s="6"/>
     </row>
     <row r="750" spans="2:4">
       <c r="B750"/>
       <c r="C750"/>
+      <c r="D750" s="6"/>
     </row>
     <row r="751" spans="2:4">
       <c r="B751"/>
       <c r="C751"/>
+      <c r="D751" s="6"/>
     </row>
     <row r="752" spans="2:4">
       <c r="B752"/>
@@ -6118,6 +6181,10 @@
       <c r="B854"/>
       <c r="C854"/>
     </row>
+    <row r="855" spans="2:3">
+      <c r="B855"/>
+      <c r="C855"/>
+    </row>
     <row r="856" spans="2:3">
       <c r="B856"/>
       <c r="C856"/>
@@ -6134,10 +6201,6 @@
       <c r="B859"/>
       <c r="C859"/>
     </row>
-    <row r="860" spans="2:3">
-      <c r="B860"/>
-      <c r="C860"/>
-    </row>
     <row r="861" spans="2:3">
       <c r="B861"/>
       <c r="C861"/>
@@ -6538,82 +6601,77 @@
       <c r="B960"/>
       <c r="C960"/>
     </row>
-    <row r="961" spans="2:4">
+    <row r="961" spans="2:3">
       <c r="B961"/>
       <c r="C961"/>
     </row>
-    <row r="962" spans="2:4">
+    <row r="962" spans="2:3">
       <c r="B962"/>
       <c r="C962"/>
     </row>
-    <row r="963" spans="2:4">
+    <row r="963" spans="2:3">
       <c r="B963"/>
       <c r="C963"/>
     </row>
-    <row r="964" spans="2:4">
+    <row r="964" spans="2:3">
       <c r="B964"/>
       <c r="C964"/>
     </row>
-    <row r="965" spans="2:4">
+    <row r="965" spans="2:3">
       <c r="B965"/>
       <c r="C965"/>
     </row>
-    <row r="966" spans="2:4">
+    <row r="966" spans="2:3">
       <c r="B966"/>
       <c r="C966"/>
     </row>
-    <row r="967" spans="2:4">
+    <row r="967" spans="2:3">
       <c r="B967"/>
       <c r="C967"/>
     </row>
-    <row r="968" spans="2:4">
+    <row r="968" spans="2:3">
       <c r="B968"/>
       <c r="C968"/>
     </row>
-    <row r="969" spans="2:4">
+    <row r="969" spans="2:3">
       <c r="B969"/>
       <c r="C969"/>
     </row>
-    <row r="970" spans="2:4">
+    <row r="970" spans="2:3">
       <c r="B970"/>
       <c r="C970"/>
     </row>
-    <row r="971" spans="2:4">
+    <row r="971" spans="2:3">
       <c r="B971"/>
       <c r="C971"/>
     </row>
-    <row r="972" spans="2:4">
+    <row r="972" spans="2:3">
       <c r="B972"/>
       <c r="C972"/>
     </row>
-    <row r="973" spans="2:4">
+    <row r="973" spans="2:3">
       <c r="B973"/>
       <c r="C973"/>
     </row>
-    <row r="974" spans="2:4">
+    <row r="974" spans="2:3">
       <c r="B974"/>
       <c r="C974"/>
-      <c r="D974" s="6"/>
-    </row>
-    <row r="975" spans="2:4">
+    </row>
+    <row r="975" spans="2:3">
       <c r="B975"/>
       <c r="C975"/>
-      <c r="D975" s="6"/>
-    </row>
-    <row r="976" spans="2:4">
+    </row>
+    <row r="976" spans="2:3">
       <c r="B976"/>
       <c r="C976"/>
-      <c r="D976" s="6"/>
     </row>
     <row r="977" spans="2:4">
       <c r="B977"/>
       <c r="C977"/>
-      <c r="D977" s="6"/>
     </row>
     <row r="978" spans="2:4">
       <c r="B978"/>
       <c r="C978"/>
-      <c r="D978" s="6"/>
     </row>
     <row r="979" spans="2:4">
       <c r="B979"/>
@@ -6668,80 +6726,85 @@
     <row r="989" spans="2:4">
       <c r="B989"/>
       <c r="C989"/>
+      <c r="D989" s="6"/>
     </row>
     <row r="990" spans="2:4">
       <c r="B990"/>
       <c r="C990"/>
+      <c r="D990" s="6"/>
     </row>
     <row r="991" spans="2:4">
       <c r="B991"/>
       <c r="C991"/>
+      <c r="D991" s="6"/>
     </row>
     <row r="992" spans="2:4">
       <c r="B992"/>
       <c r="C992"/>
-    </row>
-    <row r="993" spans="2:3">
+      <c r="D992" s="6"/>
+    </row>
+    <row r="993" spans="2:4">
       <c r="B993"/>
       <c r="C993"/>
-    </row>
-    <row r="994" spans="2:3">
+      <c r="D993" s="6"/>
+    </row>
+    <row r="994" spans="2:4">
       <c r="B994"/>
       <c r="C994"/>
     </row>
-    <row r="995" spans="2:3">
+    <row r="995" spans="2:4">
       <c r="B995"/>
       <c r="C995"/>
     </row>
-    <row r="996" spans="2:3">
+    <row r="996" spans="2:4">
       <c r="B996"/>
       <c r="C996"/>
     </row>
-    <row r="997" spans="2:3">
+    <row r="997" spans="2:4">
       <c r="B997"/>
       <c r="C997"/>
     </row>
-    <row r="998" spans="2:3">
+    <row r="998" spans="2:4">
       <c r="B998"/>
       <c r="C998"/>
     </row>
-    <row r="999" spans="2:3">
+    <row r="999" spans="2:4">
       <c r="B999"/>
       <c r="C999"/>
     </row>
-    <row r="1000" spans="2:3">
+    <row r="1000" spans="2:4">
       <c r="B1000"/>
       <c r="C1000"/>
     </row>
-    <row r="1001" spans="2:3">
+    <row r="1001" spans="2:4">
       <c r="B1001"/>
       <c r="C1001"/>
     </row>
-    <row r="1002" spans="2:3">
+    <row r="1002" spans="2:4">
       <c r="B1002"/>
       <c r="C1002"/>
     </row>
-    <row r="1003" spans="2:3">
+    <row r="1003" spans="2:4">
       <c r="B1003"/>
       <c r="C1003"/>
     </row>
-    <row r="1004" spans="2:3">
+    <row r="1004" spans="2:4">
       <c r="B1004"/>
       <c r="C1004"/>
     </row>
-    <row r="1005" spans="2:3">
+    <row r="1005" spans="2:4">
       <c r="B1005"/>
       <c r="C1005"/>
     </row>
-    <row r="1006" spans="2:3">
+    <row r="1006" spans="2:4">
       <c r="B1006"/>
       <c r="C1006"/>
     </row>
-    <row r="1007" spans="2:3">
+    <row r="1007" spans="2:4">
       <c r="B1007"/>
       <c r="C1007"/>
     </row>
-    <row r="1008" spans="2:3">
+    <row r="1008" spans="2:4">
       <c r="B1008"/>
       <c r="C1008"/>
     </row>
@@ -7097,70 +7160,90 @@
       <c r="B1096"/>
       <c r="C1096"/>
     </row>
-    <row r="1652" spans="3:3">
-      <c r="C1652" s="4"/>
-    </row>
-    <row r="1653" spans="3:3">
-      <c r="C1653" s="4"/>
-    </row>
-    <row r="1654" spans="3:3">
-      <c r="C1654" s="4"/>
-    </row>
-    <row r="1655" spans="3:3">
-      <c r="C1655" s="4"/>
-    </row>
-    <row r="1656" spans="3:3">
-      <c r="C1656" s="4"/>
-    </row>
-    <row r="1712" spans="1:3">
-      <c r="A1712" s="6"/>
-      <c r="B1712" s="6"/>
-      <c r="C1712" s="5"/>
-    </row>
-    <row r="1713" spans="1:3">
-      <c r="A1713" s="6"/>
-      <c r="B1713" s="6"/>
-      <c r="C1713" s="5"/>
-    </row>
-    <row r="1714" spans="1:3">
-      <c r="A1714" s="6"/>
-      <c r="B1714" s="6"/>
-      <c r="C1714" s="5"/>
-    </row>
-    <row r="1715" spans="1:3">
-      <c r="A1715" s="6"/>
-      <c r="B1715" s="6"/>
-      <c r="C1715" s="5"/>
-    </row>
-    <row r="1716" spans="1:3">
-      <c r="A1716" s="6"/>
-      <c r="B1716" s="6"/>
-      <c r="C1716" s="5"/>
-    </row>
-    <row r="2067" spans="1:3">
-      <c r="A2067" s="6"/>
-      <c r="B2067" s="6"/>
-      <c r="C2067" s="5"/>
-    </row>
-    <row r="2068" spans="1:3">
-      <c r="A2068" s="6"/>
-      <c r="B2068" s="6"/>
-      <c r="C2068" s="5"/>
-    </row>
-    <row r="2069" spans="1:3">
-      <c r="A2069" s="6"/>
-      <c r="B2069" s="6"/>
-      <c r="C2069" s="5"/>
-    </row>
-    <row r="2070" spans="1:3">
-      <c r="A2070" s="6"/>
-      <c r="B2070" s="6"/>
-      <c r="C2070" s="5"/>
-    </row>
-    <row r="2071" spans="1:3">
-      <c r="A2071" s="6"/>
-      <c r="B2071" s="6"/>
-      <c r="C2071" s="5"/>
+    <row r="1097" spans="2:3">
+      <c r="B1097"/>
+      <c r="C1097"/>
+    </row>
+    <row r="1098" spans="2:3">
+      <c r="B1098"/>
+      <c r="C1098"/>
+    </row>
+    <row r="1099" spans="2:3">
+      <c r="B1099"/>
+      <c r="C1099"/>
+    </row>
+    <row r="1100" spans="2:3">
+      <c r="B1100"/>
+      <c r="C1100"/>
+    </row>
+    <row r="1101" spans="2:3">
+      <c r="B1101"/>
+      <c r="C1101"/>
+    </row>
+    <row r="1657" spans="3:3">
+      <c r="C1657" s="4"/>
+    </row>
+    <row r="1658" spans="3:3">
+      <c r="C1658" s="4"/>
+    </row>
+    <row r="1659" spans="3:3">
+      <c r="C1659" s="4"/>
+    </row>
+    <row r="1660" spans="3:3">
+      <c r="C1660" s="4"/>
+    </row>
+    <row r="1661" spans="3:3">
+      <c r="C1661" s="4"/>
+    </row>
+    <row r="1717" spans="1:3">
+      <c r="A1717" s="6"/>
+      <c r="B1717" s="6"/>
+      <c r="C1717" s="5"/>
+    </row>
+    <row r="1718" spans="1:3">
+      <c r="A1718" s="6"/>
+      <c r="B1718" s="6"/>
+      <c r="C1718" s="5"/>
+    </row>
+    <row r="1719" spans="1:3">
+      <c r="A1719" s="6"/>
+      <c r="B1719" s="6"/>
+      <c r="C1719" s="5"/>
+    </row>
+    <row r="1720" spans="1:3">
+      <c r="A1720" s="6"/>
+      <c r="B1720" s="6"/>
+      <c r="C1720" s="5"/>
+    </row>
+    <row r="1721" spans="1:3">
+      <c r="A1721" s="6"/>
+      <c r="B1721" s="6"/>
+      <c r="C1721" s="5"/>
+    </row>
+    <row r="2072" spans="1:3">
+      <c r="A2072" s="6"/>
+      <c r="B2072" s="6"/>
+      <c r="C2072" s="5"/>
+    </row>
+    <row r="2073" spans="1:3">
+      <c r="A2073" s="6"/>
+      <c r="B2073" s="6"/>
+      <c r="C2073" s="5"/>
+    </row>
+    <row r="2074" spans="1:3">
+      <c r="A2074" s="6"/>
+      <c r="B2074" s="6"/>
+      <c r="C2074" s="5"/>
+    </row>
+    <row r="2075" spans="1:3">
+      <c r="A2075" s="6"/>
+      <c r="B2075" s="6"/>
+      <c r="C2075" s="5"/>
+    </row>
+    <row r="2076" spans="1:3">
+      <c r="A2076" s="6"/>
+      <c r="B2076" s="6"/>
+      <c r="C2076" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
